--- a/src/test/resources/dataDriven/0_plantillas/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/0_plantillas/DataPrueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\Geolocalizacion\P-Geo\src\test\resources\dataDriven\LRETAMOZO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\lretamozo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9852AC-15D1-4946-AE79-9CF3454AC22A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61492DB2-64DF-4A4B-86DA-946D4013522A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
   <si>
     <t>usar</t>
   </si>
@@ -70,18 +70,6 @@
     <t>En camino</t>
   </si>
   <si>
-    <t>ABA070</t>
-  </si>
-  <si>
-    <t>ABA071</t>
-  </si>
-  <si>
-    <t>ABA072</t>
-  </si>
-  <si>
-    <t>ABA073</t>
-  </si>
-  <si>
     <t>telefono</t>
   </si>
   <si>
@@ -137,6 +125,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ABA310</t>
+  </si>
+  <si>
+    <t>ABA311</t>
+  </si>
+  <si>
+    <t>ABA312</t>
+  </si>
+  <si>
+    <t>ABA313</t>
+  </si>
+  <si>
+    <t>ABA314</t>
+  </si>
+  <si>
+    <t>ABA315</t>
+  </si>
+  <si>
+    <t>ABA316</t>
+  </si>
+  <si>
+    <t>ABA317</t>
+  </si>
+  <si>
+    <t>ABA318</t>
   </si>
 </sst>
 </file>
@@ -594,7 +609,7 @@
   <dimension ref="A1:AMC10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,301 +640,295 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +994,7 @@
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA070</v>
+        <v>ABA310</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -1006,7 +1015,7 @@
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA071</v>
+        <v>ABA311</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -1027,7 +1036,7 @@
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA072</v>
+        <v>ABA312</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1048,7 +1057,7 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA073</v>
+        <v>ABA313</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>

--- a/src/test/resources/dataDriven/0_plantillas/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/0_plantillas/DataPrueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\lretamozo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\0_plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61492DB2-64DF-4A4B-86DA-946D4013522A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120E9B60-B581-4C33-A68F-B8BC4D8B105D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:AMC10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="A6" sqref="A6:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,9 +659,6 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
@@ -691,9 +688,6 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
@@ -723,9 +717,6 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -755,9 +746,6 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -787,6 +775,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -816,6 +807,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
@@ -845,6 +839,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
@@ -874,6 +871,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>

--- a/src/test/resources/dataDriven/0_plantillas/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/0_plantillas/DataPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\0_plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120E9B60-B581-4C33-A68F-B8BC4D8B105D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03FB3AE-24E5-4AC1-B4A0-E470136F6816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="58">
   <si>
     <t>usar</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>usuario</t>
   </si>
   <si>
@@ -61,12 +58,6 @@
     <t>Test2019#</t>
   </si>
   <si>
-    <t>ROCIO PAREDES</t>
-  </si>
-  <si>
-    <t>PRUEBAS2 LEGALL LEGALL</t>
-  </si>
-  <si>
     <t>En camino</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>Avenida juan de arona 780, San isidro</t>
   </si>
   <si>
-    <t>tambo real</t>
-  </si>
-  <si>
     <t>Miraflores</t>
   </si>
   <si>
@@ -127,31 +115,97 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>ABA310</t>
-  </si>
-  <si>
-    <t>ABA311</t>
-  </si>
-  <si>
-    <t>ABA312</t>
-  </si>
-  <si>
-    <t>ABA313</t>
-  </si>
-  <si>
-    <t>ABA314</t>
-  </si>
-  <si>
-    <t>ABA315</t>
-  </si>
-  <si>
-    <t>ABA316</t>
-  </si>
-  <si>
-    <t>ABA317</t>
-  </si>
-  <si>
-    <t>ABA318</t>
+    <t>PROCURADOR AUTO2</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO1</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO3</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO4</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO9</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO10</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO11</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO12</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO13</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO14</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO15</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO16</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO17</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO18</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO19</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO20</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO21</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO22</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO23</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO24</t>
+  </si>
+  <si>
+    <t>PROCURADOR AUTO25</t>
+  </si>
+  <si>
+    <t>tambo real 236</t>
+  </si>
+  <si>
+    <t>ABA325</t>
+  </si>
+  <si>
+    <t>ABA326</t>
+  </si>
+  <si>
+    <t>ABA327</t>
+  </si>
+  <si>
+    <t>ABA328</t>
+  </si>
+  <si>
+    <t>ABA329</t>
+  </si>
+  <si>
+    <t>ABA330</t>
+  </si>
+  <si>
+    <t>ABA331</t>
+  </si>
+  <si>
+    <t>ABA332</t>
+  </si>
+  <si>
+    <t>ABA333</t>
   </si>
 </sst>
 </file>
@@ -609,12 +663,12 @@
   <dimension ref="A1:AMC10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A9"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
@@ -627,308 +681,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -947,133 +1001,601 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
-  <dimension ref="A1:AMD5"/>
+  <dimension ref="A1:AMD26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A5"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="1018" width="9.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="1018" width="9.109375" style="1" customWidth="1"/>
     <col min="1019" max="1025" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="7">
+        <f>'01-RegistrarAtencion'!A2</f>
+        <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>'01-RegistrarAtencion'!D2</f>
-        <v>ABA310</v>
+        <v>ABA325</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" s="7">
+        <f>'01-RegistrarAtencion'!A3</f>
+        <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>'01-RegistrarAtencion'!D3</f>
-        <v>ABA311</v>
+        <v>ABA326</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
+      <c r="A4" s="7">
+        <f>'01-RegistrarAtencion'!A4</f>
+        <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>'01-RegistrarAtencion'!D4</f>
-        <v>ABA312</v>
+        <v>ABA327</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
+      <c r="A5" s="7">
+        <f>'01-RegistrarAtencion'!A5</f>
+        <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>'01-RegistrarAtencion'!D5</f>
-        <v>ABA313</v>
+        <v>ABA328</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="str">
+        <f>'01-RegistrarAtencion'!A6</f>
+        <v>X</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D6</f>
+        <v>ABA329</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="str">
+        <f>'01-RegistrarAtencion'!A7</f>
+        <v>X</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D7</f>
+        <v>ABA330</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="str">
+        <f>'01-RegistrarAtencion'!A8</f>
+        <v>X</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D8</f>
+        <v>ABA331</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="str">
+        <f>'01-RegistrarAtencion'!A9</f>
+        <v>X</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D9</f>
+        <v>ABA332</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <f>'01-RegistrarAtencion'!A10</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>'01-RegistrarAtencion'!D10</f>
+        <v>ABA333</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <f>'01-RegistrarAtencion'!A11</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <f>'01-RegistrarAtencion'!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <f>'01-RegistrarAtencion'!A12</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <f>'01-RegistrarAtencion'!D12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <f>'01-RegistrarAtencion'!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <f>'01-RegistrarAtencion'!D13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <f>'01-RegistrarAtencion'!A14</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1">
+        <f>'01-RegistrarAtencion'!D14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <f>'01-RegistrarAtencion'!A15</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <f>'01-RegistrarAtencion'!D15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <f>'01-RegistrarAtencion'!A16</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <f>'01-RegistrarAtencion'!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <f>'01-RegistrarAtencion'!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <f>'01-RegistrarAtencion'!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <f>'01-RegistrarAtencion'!A18</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <f>'01-RegistrarAtencion'!D18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <f>'01-RegistrarAtencion'!A19</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <f>'01-RegistrarAtencion'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <f>'01-RegistrarAtencion'!A20</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <f>'01-RegistrarAtencion'!D20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <f>'01-RegistrarAtencion'!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <f>'01-RegistrarAtencion'!D21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <f>'01-RegistrarAtencion'!A22</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
+        <f>'01-RegistrarAtencion'!D22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <f>'01-RegistrarAtencion'!A23</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
+        <f>'01-RegistrarAtencion'!D23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <f>'01-RegistrarAtencion'!A24</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <f>'01-RegistrarAtencion'!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <f>'01-RegistrarAtencion'!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <f>'01-RegistrarAtencion'!D25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <f>'01-RegistrarAtencion'!A26</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1">
+        <f>'01-RegistrarAtencion'!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F38DA22A-F66F-48EF-A246-7CC780DC453E}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{539B428D-6F6D-4E7B-9E08-F978316EE028}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{555577FD-DEB6-4943-9200-0A97263081AC}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{3BEB8098-14A3-41BE-ADE5-52226F072453}"/>
+    <hyperlink ref="B3:B26" r:id="rId2" display="clegall@gmail.com" xr:uid="{BFFAE488-3FED-4EFA-AACA-FBBB98F5C98A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/test/resources/dataDriven/0_plantillas/DataPrueba.xlsx
+++ b/src/test/resources/dataDriven/0_plantillas/DataPrueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\0_plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_WS\GeoSinDependencia\Geolocalizacion_SinDependencia\src\test\resources\dataDriven\dataPool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03FB3AE-24E5-4AC1-B4A0-E470136F6816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AFDAAB-5A77-4965-9532-7A1371EDC56F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01-RegistrarAtencion" sheetId="1" r:id="rId1"/>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAA0A67-BA6C-453E-9BA4-3083C2316444}">
   <dimension ref="A1:AMD26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,9 +1040,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <f>'01-RegistrarAtencion'!A2</f>
-        <v>0</v>
+      <c r="A2" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A2="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -1062,9 +1062,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <f>'01-RegistrarAtencion'!A3</f>
-        <v>0</v>
+      <c r="A3" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A3="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1084,9 +1084,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <f>'01-RegistrarAtencion'!A4</f>
-        <v>0</v>
+      <c r="A4" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A4="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1106,9 +1106,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <f>'01-RegistrarAtencion'!A5</f>
-        <v>0</v>
+      <c r="A5" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A5="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
-        <f>'01-RegistrarAtencion'!A6</f>
+        <f>IF('01-RegistrarAtencion'!A6="X","X"," ")</f>
         <v>X</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1151,7 +1151,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
-        <f>'01-RegistrarAtencion'!A7</f>
+        <f>IF('01-RegistrarAtencion'!A7="X","X"," ")</f>
         <v>X</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1173,7 +1173,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
-        <f>'01-RegistrarAtencion'!A8</f>
+        <f>IF('01-RegistrarAtencion'!A8="X","X"," ")</f>
         <v>X</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1195,7 +1195,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
-        <f>'01-RegistrarAtencion'!A9</f>
+        <f>IF('01-RegistrarAtencion'!A9="X","X"," ")</f>
         <v>X</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1216,9 +1216,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <f>'01-RegistrarAtencion'!A10</f>
-        <v>0</v>
+      <c r="A10" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A10="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B10" s="5" t="s">
         <v>6</v>
@@ -1238,9 +1238,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <f>'01-RegistrarAtencion'!A11</f>
-        <v>0</v>
+      <c r="A11" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A11="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
@@ -1260,9 +1260,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <f>'01-RegistrarAtencion'!A12</f>
-        <v>0</v>
+      <c r="A12" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A12="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
@@ -1282,9 +1282,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <f>'01-RegistrarAtencion'!A13</f>
-        <v>0</v>
+      <c r="A13" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A13="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
@@ -1304,9 +1304,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <f>'01-RegistrarAtencion'!A14</f>
-        <v>0</v>
+      <c r="A14" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A14="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B14" s="5" t="s">
         <v>6</v>
@@ -1326,9 +1326,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <f>'01-RegistrarAtencion'!A15</f>
-        <v>0</v>
+      <c r="A15" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A15="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
@@ -1348,9 +1348,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <f>'01-RegistrarAtencion'!A16</f>
-        <v>0</v>
+      <c r="A16" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A16="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
@@ -1370,9 +1370,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <f>'01-RegistrarAtencion'!A17</f>
-        <v>0</v>
+      <c r="A17" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A17="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B17" s="5" t="s">
         <v>6</v>
@@ -1392,9 +1392,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <f>'01-RegistrarAtencion'!A18</f>
-        <v>0</v>
+      <c r="A18" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A18="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B18" s="5" t="s">
         <v>6</v>
@@ -1414,9 +1414,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <f>'01-RegistrarAtencion'!A19</f>
-        <v>0</v>
+      <c r="A19" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A19="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B19" s="5" t="s">
         <v>6</v>
@@ -1436,9 +1436,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <f>'01-RegistrarAtencion'!A20</f>
-        <v>0</v>
+      <c r="A20" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A20="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B20" s="5" t="s">
         <v>6</v>
@@ -1458,9 +1458,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <f>'01-RegistrarAtencion'!A21</f>
-        <v>0</v>
+      <c r="A21" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A21="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B21" s="5" t="s">
         <v>6</v>
@@ -1480,9 +1480,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <f>'01-RegistrarAtencion'!A22</f>
-        <v>0</v>
+      <c r="A22" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A22="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B22" s="5" t="s">
         <v>6</v>
@@ -1502,9 +1502,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <f>'01-RegistrarAtencion'!A23</f>
-        <v>0</v>
+      <c r="A23" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A23="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B23" s="5" t="s">
         <v>6</v>
@@ -1524,9 +1524,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <f>'01-RegistrarAtencion'!A24</f>
-        <v>0</v>
+      <c r="A24" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A24="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B24" s="5" t="s">
         <v>6</v>
@@ -1546,9 +1546,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <f>'01-RegistrarAtencion'!A25</f>
-        <v>0</v>
+      <c r="A25" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A25="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B25" s="5" t="s">
         <v>6</v>
@@ -1568,9 +1568,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <f>'01-RegistrarAtencion'!A26</f>
-        <v>0</v>
+      <c r="A26" s="7" t="str">
+        <f>IF('01-RegistrarAtencion'!A26="X","X"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B26" s="5" t="s">
         <v>6</v>
